--- a/src/uni_group_tool/test_data/groups long 2F 2o Average gender .xlsx
+++ b/src/uni_group_tool/test_data/groups long 2F 2o Average gender .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b897000a5397817f/uni/project/coding/uni-group-tool/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b897000a5397817f/uni/project/coding/src/uni_group_tool/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="14_{EE400B33-0801-4722-A947-157A53F56C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F769B3D0-E5B5-4F2C-BB5A-9C676F328E3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="450" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups long 2F 2o Average gende" sheetId="1" r:id="rId1"/>
@@ -2674,7 +2674,7 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
